--- a/nes-lter-attune-fcm-discrete-transect-info.xlsx
+++ b/nes-lter-attune-fcm-discrete-transect-info.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\github\nes-lter-attune-fcm-discrete-transect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15A801-35F0-475D-9AB1-273DBBE5ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ColumnHeaders"/>
-    <sheet r:id="rId2" sheetId="2" name="CustomUnits"/>
-    <sheet r:id="rId3" sheetId="3" name="CategoricalVariables"/>
-    <sheet r:id="rId4" sheetId="4" name="Personnel"/>
-    <sheet r:id="rId5" sheetId="5" name="Keywords"/>
+    <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
+    <sheet name="CustomUnits" sheetId="2" r:id="rId2"/>
+    <sheet name="CategoricalVariables" sheetId="3" r:id="rId3"/>
+    <sheet name="Personnel" sheetId="4" r:id="rId4"/>
+    <sheet name="Keywords" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
   <si>
     <t>keyword</t>
   </si>
@@ -320,15 +326,9 @@
     <t>salinity</t>
   </si>
   <si>
-    <t>salinity when rosette bottle closed obtained from CTD bottle file, calculated according to the Practical Salinity Scale of 1978</t>
-  </si>
-  <si>
     <t>potential_temperature_c</t>
   </si>
   <si>
-    <t>temperature of water in degrees Celsius when rosette bottle closed obtained from CTD bottle file</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
@@ -356,9 +356,6 @@
     <t>syn_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of Synechococcus (urn:lsid:marinespecies.org:taxname:160572) equivalent to Orange fluorescing prokaryote picophytoplankton http://vocab.nerc.ac.uk/collection/P01/current/SDBIOL01/ https://vocab.nerc.ac.uk/collection/F02/current/F0200003/</t>
-  </si>
-  <si>
     <t>numberPerMilliliter</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>redeuk_leq_2um_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of eukaryote (urn:lsid:algaebase.org:taxname:86701) picophytoplankton cells estimated from scattering signal to be less than 2 um in diameter</t>
-  </si>
-  <si>
     <t>redeuk_leq_2um_biovolume_concentration</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>redeuk_leq_3um_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 3 um in diameter including cells counted in previous column</t>
-  </si>
-  <si>
     <t>redeuk_leq_3um_biovolume_concentration</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>redeuk_leq_5um_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 5 um in diameter including cells counted in previous columns</t>
-  </si>
-  <si>
     <t>redeuk_leq_5um_biovolume_concentration</t>
   </si>
   <si>
@@ -449,9 +437,6 @@
     <t>redeuk_leq_10um_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 10 um in diameter including cells counted in previous columns</t>
-  </si>
-  <si>
     <t>redeuk_leq_10um_biovolume_concentration</t>
   </si>
   <si>
@@ -467,21 +452,12 @@
     <t>redeuk_leq_20um_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/P01/current/SDBIOL01/ http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
     <t>redeuk_leq_20um_biovolume_concentration</t>
   </si>
   <si>
-    <t>cubic micrometers per milliliter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
     <t>redeuk_leq_20um_carbon_concentration</t>
   </si>
   <si>
-    <t>micrograms of carbon per liter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
     <t>redeuk_volume_analyzed_ml</t>
   </si>
   <si>
@@ -497,9 +473,6 @@
     <t>hetprok_cells_per_ml</t>
   </si>
   <si>
-    <t>abundance per unit volume of heterotrophic bacterial cells including http://vocab.nerc.ac.uk/collection/F02/current/F0200010/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200011/</t>
-  </si>
-  <si>
     <t>hetprok_volume_analyzed_ml</t>
   </si>
   <si>
@@ -510,13 +483,96 @@
   </si>
   <si>
     <t>name of original .fcs file used to identify heterotrophic prokaryotes in this sample</t>
+  </si>
+  <si>
+    <t>potential temperature of water in degrees Celsius when rosette bottle closed obtained from CTD bottle file</t>
+  </si>
+  <si>
+    <t>salinity calculated according to the Practical Salinity Scale of 1978 when rosette bottle closed obtained from CTD bottle file</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of Synechococcus (urn:lsid:marinespecies.org:taxname:160572) equivalent to Orange fluorescing prokaryote picophytoplankton https://vocab.nerc.ac.uk/collection/F02/current/F0200003/</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of eukaryote (urn:lsid:algaebase.org:taxname:86701) picophytoplankton cells estimated from scattering signal to be less than 2 um in diameter</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 3 um in diameter including cells counted in previous column</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 5 um in diameter including cells counted in previous columns</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells estimated from scattering signal to be less than 10 um in diameter including cells counted in previous columns</t>
+  </si>
+  <si>
+    <t>hetprok_carbon_concentration</t>
+  </si>
+  <si>
+    <t>samplelog_QC</t>
+  </si>
+  <si>
+    <t>nearest_station</t>
+  </si>
+  <si>
+    <t>distance_km</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>cubic micrometers per milliliter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>micrograms of carbon per liter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of heterotrophic prokaryotic cells http://vocab.nerc.ac.uk/collection/F02/current/F0200010/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200011/</t>
+  </si>
+  <si>
+    <t>micrograms of carbon per liter of seawater of heterotrophic prokaryotic cells (http://vocab.nerc.ac.uk/collection/F02/current/F0200010/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200011/) estimated from cell concentration and constant carbon per cell ratio of 20fg per cell from Lee and Furham (1987) who report that bacterial biomass is relatively invariant to cell size</t>
+  </si>
+  <si>
+    <t>result of quality control step in which .fcs filenames are compared to sample logs recorded during the cruise</t>
+  </si>
+  <si>
+    <t>NES-LTER station nearest to the sample location</t>
+  </si>
+  <si>
+    <t>distance from sample location to nearest NES-LTER station</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>indicates agreement: the cast and niskin in the filename matches a sample that was recorded as being taken</t>
+  </si>
+  <si>
+    <t>indicates missing data: a sample was supposedly taken, but no matching .fcs files were found</t>
+  </si>
+  <si>
+    <t>indicates questionable data: an .fcs file exists, but the sample log did not document that a sample was taken from the cast and niskin indicated by the filename. In some of these cases, we have manually identified which sample the .fcs data are most likely to correspond to: for example if the log indicates that an alternate niskin was used when that in the filename misfired. The filenames themselves are unchanged during this manual reassignment, so the adjustments are trackable by comparing the filenames to the cast and niskin columns</t>
+  </si>
+  <si>
+    <t>indicates unevaluated: the .fcs filename has not yet been compared to the sample log</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>Heterotrophic prokaryotes with relatively high nucleic acid</t>
+  </si>
+  <si>
+    <t>Heterotrophic prokaryotes with relatively low nucleic acid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,17 +594,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -561,16 +612,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,44 +636,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,10 +680,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -674,71 +721,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,7 +813,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -789,11 +836,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -802,13 +849,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -818,7 +865,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -827,7 +874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -836,7 +883,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -844,10 +891,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -912,779 +959,803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="41.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="207.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="207.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.9">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.9">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A12" s="5" t="s">
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A13" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A18" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="F36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A31" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A32" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A33" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A34" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="F37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.9" customFormat="1" s="4">
-      <c r="A36" s="5" t="s">
+      <c r="B38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1700,42 +1771,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1745,30 +1810,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1777,267 +1886,256 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2047,145 +2145,171 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="47.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="66.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>

--- a/nes-lter-attune-fcm-discrete-transect-info.xlsx
+++ b/nes-lter-attune-fcm-discrete-transect-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\github\nes-lter-attune-fcm-discrete-transect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15A801-35F0-475D-9AB1-273DBBE5ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F76D93-4861-40A0-A65E-5013FFD002D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="182">
   <si>
     <t>keyword</t>
   </si>
@@ -551,12 +551,6 @@
     <t>indicates agreement: the cast and niskin in the filename matches a sample that was recorded as being taken</t>
   </si>
   <si>
-    <t>indicates missing data: a sample was supposedly taken, but no matching .fcs files were found</t>
-  </si>
-  <si>
-    <t>indicates questionable data: an .fcs file exists, but the sample log did not document that a sample was taken from the cast and niskin indicated by the filename. In some of these cases, we have manually identified which sample the .fcs data are most likely to correspond to: for example if the log indicates that an alternate niskin was used when that in the filename misfired. The filenames themselves are unchanged during this manual reassignment, so the adjustments are trackable by comparing the filenames to the cast and niskin columns</t>
-  </si>
-  <si>
     <t>indicates unevaluated: the .fcs filename has not yet been compared to the sample log</t>
   </si>
   <si>
@@ -567,6 +561,15 @@
   </si>
   <si>
     <t>Heterotrophic prokaryotes with relatively low nucleic acid</t>
+  </si>
+  <si>
+    <t>Distance greater than 2 km from NES-LTER station</t>
+  </si>
+  <si>
+    <t>indicates missing data: a sample was marked in the cruise sample log as collected, but no matching .fcs files were found</t>
+  </si>
+  <si>
+    <t>indicates questionable data: an .fcs file exists, but the sample log did not document that a sample was taken from the cast and niskin indicated by the filename. In some of these cases, we have manually identified which sample the .fcs data is most likely to correspond to.</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,15 +650,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -965,15 +964,16 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="207.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1110,45 +1110,45 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1816,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1843,7 +1843,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1854,8 +1854,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>175</v>
+      <c r="C3" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,8 +1865,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>176</v>
+      <c r="C4" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1876,8 +1876,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>177</v>
+      <c r="C5" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -2151,7 +2151,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>

--- a/nes-lter-attune-fcm-discrete-transect-info.xlsx
+++ b/nes-lter-attune-fcm-discrete-transect-info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\github\nes-lter-attune-fcm-discrete-transect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\Attune\EDI_data_packages\Attune_transect_FCMdiscrete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F76D93-4861-40A0-A65E-5013FFD002D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC86250-94DF-4048-A5B7-F9E85AAA4831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -518,15 +518,6 @@
     <t>distance_km</t>
   </si>
   <si>
-    <t>abundance per milliliter of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
-    <t>cubic micrometers per milliliter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
-    <t>micrograms of carbon per liter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
-  </si>
-  <si>
     <t>abundance per milliliter of heterotrophic prokaryotic cells http://vocab.nerc.ac.uk/collection/F02/current/F0200010/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200011/</t>
   </si>
   <si>
@@ -570,6 +561,15 @@
   </si>
   <si>
     <t>indicates questionable data: an .fcs file exists, but the sample log did not document that a sample was taken from the cast and niskin indicated by the filename. In some of these cases, we have manually identified which sample the .fcs data is most likely to correspond to.</t>
+  </si>
+  <si>
+    <t>abundance per milliliter of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells less than 20 um in diameter including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>cubic micrometers per milliliter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells less than 20 um in diameter including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>micrograms of carbon per liter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells less than 20 um in diameter including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
   </si>
 </sst>
 </file>
@@ -964,19 +964,19 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="207.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="207.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -999,7 +999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>111</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>116</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>131</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>132</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>134</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>136</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>139</v>
       </c>
@@ -1529,12 +1529,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>85</v>
@@ -1549,12 +1549,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>85</v>
@@ -1569,12 +1569,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>85</v>
@@ -1589,7 +1589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>146</v>
       </c>
@@ -1626,12 +1626,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>85</v>
@@ -1646,12 +1646,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>85</v>
@@ -1666,7 +1666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>149</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>151</v>
       </c>
@@ -1703,16 +1703,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>87</v>
       </c>
@@ -1720,12 +1720,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>82</v>
@@ -1737,24 +1737,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1771,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1816,16 +1816,16 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -1844,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -1855,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1896,13 +1896,13 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -2155,13 +2155,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2193,15 +2193,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2257,23 +2257,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>

--- a/nes-lter-attune-fcm-discrete-transect-info.xlsx
+++ b/nes-lter-attune-fcm-discrete-transect-info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\Attune\EDI_data_packages\Attune_transect_FCMdiscrete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\github\nes-lter-attune-fcm-discrete-transect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC86250-94DF-4048-A5B7-F9E85AAA4831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475DC0B-6CBD-46C2-81B8-C9A59585E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,6 @@
     <t>nearest_station</t>
   </si>
   <si>
-    <t>distance_km</t>
-  </si>
-  <si>
     <t>abundance per milliliter of heterotrophic prokaryotic cells http://vocab.nerc.ac.uk/collection/F02/current/F0200010/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200011/</t>
   </si>
   <si>
@@ -570,6 +567,9 @@
   </si>
   <si>
     <t>micrograms of carbon per liter of seawater of all measured eukaryote (urn:lsid:algaebase.org:taxname:86701) phytoplankton cells less than 20 um in diameter including cells counted in previous columns http://vocab.nerc.ac.uk/collection/F02/current/F0200004/ and http://vocab.nerc.ac.uk/collection/F02/current/F0200005/</t>
+  </si>
+  <si>
+    <t>station_distance</t>
   </si>
 </sst>
 </file>
@@ -964,19 +964,19 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="207.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="207.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -999,7 +999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>111</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>116</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>131</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>132</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>134</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>136</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>139</v>
       </c>
@@ -1529,12 +1529,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>85</v>
@@ -1549,12 +1549,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>85</v>
@@ -1569,12 +1569,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>85</v>
@@ -1589,7 +1589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>146</v>
       </c>
@@ -1626,12 +1626,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>85</v>
@@ -1646,12 +1646,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>85</v>
@@ -1666,7 +1666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>149</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>151</v>
       </c>
@@ -1703,15 +1703,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>87</v>
@@ -1720,12 +1720,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>82</v>
@@ -1737,24 +1737,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1771,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1820,12 +1820,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -1844,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -1855,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1896,13 +1896,13 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -2151,17 +2151,17 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2193,15 +2193,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2257,23 +2257,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
